--- a/output/entrepueblos.xlsx
+++ b/output/entrepueblos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -621,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +639,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,10 +748,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -841,15 +859,24 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>239089</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -948,15 +975,24 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>565424</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1055,15 +1091,24 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>417637</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1162,15 +1207,24 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>632420</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1269,15 +1323,24 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>556291</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1376,15 +1439,24 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>18722</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1483,15 +1555,24 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>642456</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1590,15 +1671,24 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>352290</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1697,15 +1787,24 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>3542</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1804,15 +1903,24 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>408779</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1911,15 +2019,24 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>1302992</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2018,15 +2135,24 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>506952</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2125,15 +2251,24 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>341389</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2232,15 +2367,24 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>445211</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2339,15 +2483,24 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>34736</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2446,15 +2599,24 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>9000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2553,15 +2715,24 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>557361</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2660,15 +2831,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>659430</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2767,15 +2947,24 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>842567</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2874,15 +3063,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>664537</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2981,15 +3179,24 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>246040</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3088,15 +3295,24 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>30547.085</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3195,15 +3411,24 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>82466.42999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3302,15 +3527,24 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>91145.235</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3409,15 +3643,24 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>211201.7</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3516,15 +3759,24 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>130310.21</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3623,15 +3875,24 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>20865.89</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3730,15 +3991,24 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>30547.085</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3837,15 +4107,24 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>82466.42999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3944,15 +4223,24 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>91145.235</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4051,15 +4339,24 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>211201.7</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4158,15 +4455,24 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>130310.21</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4265,15 +4571,24 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>20865.89</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4372,15 +4687,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>3181.44</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4479,15 +4803,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>197262.845</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4586,15 +4919,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>65306.79</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4693,15 +5035,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>188641.305</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4800,15 +5151,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>56404.71</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4907,15 +5267,24 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>225346.225</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5014,15 +5383,24 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>3181.44</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5121,15 +5499,24 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>197262.845</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5228,15 +5615,24 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>65306.79</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5335,15 +5731,24 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>188641.305</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5442,15 +5847,24 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>56404.71</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5549,21 +5963,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>225346.225</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5656,15 +6079,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>42374</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5763,15 +6195,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>318510</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5870,15 +6311,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>177010</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5977,15 +6427,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>576824</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6084,15 +6543,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>10854</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6191,15 +6659,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>167928</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6298,9 +6775,18 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>698002</v>
       </c>
     </row>

--- a/output/entrepueblos.xlsx
+++ b/output/entrepueblos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -630,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +645,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,10 +763,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -859,24 +871,30 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>239089</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -975,24 +993,30 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>565424</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1091,24 +1115,30 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>417637</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1207,24 +1237,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>632420</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1323,24 +1359,30 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>556291</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1439,24 +1481,30 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>18722</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1555,24 +1603,30 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>642456</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1671,24 +1725,30 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0.1961520365420933</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>352290</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1787,24 +1847,30 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>3542</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1903,24 +1969,30 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>408779</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2019,24 +2091,30 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>1302992</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2135,24 +2213,30 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>506952</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2251,24 +2335,30 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>341389</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2367,24 +2457,30 @@
         <v>0</v>
       </c>
       <c r="AI15">
+        <v>0.05079435256197571</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>445211</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2483,24 +2579,30 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>34736</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2599,24 +2701,30 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>9000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2715,24 +2823,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>557361</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2831,24 +2945,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>659430</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2947,24 +3067,30 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>842567</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3063,24 +3189,30 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>664537</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3179,24 +3311,30 @@
         <v>0</v>
       </c>
       <c r="AI22">
+        <v>0.2482524941611279</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>246040</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3295,24 +3433,30 @@
         <v>0</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>30547.085</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3411,24 +3555,30 @@
         <v>0</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>82466.42999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3527,24 +3677,30 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>91145.235</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3643,24 +3799,30 @@
         <v>0</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>211201.7</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3759,24 +3921,30 @@
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>130310.21</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3875,24 +4043,30 @@
         <v>0</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>20865.89</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3991,24 +4165,30 @@
         <v>0</v>
       </c>
       <c r="AI29">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>30547.085</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4107,24 +4287,30 @@
         <v>0</v>
       </c>
       <c r="AI30">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>82466.42999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4223,24 +4409,30 @@
         <v>0</v>
       </c>
       <c r="AI31">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>91145.235</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4339,24 +4531,30 @@
         <v>0</v>
       </c>
       <c r="AI32">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>211201.7</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4455,24 +4653,30 @@
         <v>0</v>
       </c>
       <c r="AI33">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>130310.21</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4571,24 +4775,30 @@
         <v>0</v>
       </c>
       <c r="AI34">
+        <v>0.1258810594244233</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>20865.89</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4687,24 +4897,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI35">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>3181.44</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4803,24 +5019,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI36">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>197262.845</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4919,24 +5141,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI37">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>65306.79</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5035,24 +5263,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI38">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>188641.305</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5151,24 +5385,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI39">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>56404.71</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5267,24 +5507,30 @@
         <v>0.04821564583402579</v>
       </c>
       <c r="AI40">
+        <v>0.5583513940237539</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>225346.225</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5383,24 +5629,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI41">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>3181.44</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5499,24 +5751,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI42">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>197262.845</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5615,24 +5873,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI43">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>65306.79</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5731,24 +5995,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI44">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>188641.305</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5847,24 +6117,30 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI45">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>56404.71</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5963,30 +6239,36 @@
         <v>0.04914355577133282</v>
       </c>
       <c r="AI46">
+        <v>0.2912061338728179</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>225346.225</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6079,24 +6361,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>42374</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6195,24 +6483,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>318510</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6311,24 +6605,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>177010</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6427,24 +6727,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>576824</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6543,24 +6849,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>10854</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6659,24 +6971,30 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>167928</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6775,18 +7093,24 @@
         <v>0.06981067153679985</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>698002</v>
       </c>
     </row>

--- a/output/entrepueblos.xlsx
+++ b/output/entrepueblos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>2016_cuba</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_ecuador</t>
@@ -778,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D3">
         <v>264401</v>
@@ -1022,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1266,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>59410</v>
@@ -1388,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1510,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D8">
         <v>200000</v>
@@ -1632,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1754,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D10">
         <v>264401</v>
@@ -1876,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D12">
         <v>250000</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D13">
         <v>59410</v>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D14">
         <v>200000</v>
@@ -2364,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2486,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2608,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2730,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2852,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D19">
         <v>250000</v>
@@ -2974,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D20">
         <v>412568</v>
@@ -3096,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D21">
         <v>304272</v>
@@ -3218,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3340,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3462,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3584,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3828,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3950,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4072,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4194,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4316,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4438,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D32">
         <v>133060</v>
@@ -4560,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4804,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4926,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5048,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5170,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5292,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D39">
         <v>133060</v>
@@ -5414,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D40">
         <v>2500000</v>
@@ -5536,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5658,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5780,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5902,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6024,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6146,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6267,8 +6264,8 @@
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
-        <v>87</v>
+      <c r="C47">
+        <v>6550.274372976741</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6384,13 +6381,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6506,13 +6503,13 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6628,13 +6625,13 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6750,13 +6747,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6872,13 +6869,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6994,13 +6991,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D53">
         <v>0</v>

--- a/output/entrepueblos.xlsx
+++ b/output/entrepueblos.xlsx
@@ -1754,7 +1754,7 @@
         <v>5730.354774594881</v>
       </c>
       <c r="D10">
-        <v>264401</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>565424</v>
@@ -2120,7 +2120,7 @@
         <v>1503.870423231357</v>
       </c>
       <c r="D13">
-        <v>59410</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>556291</v>
@@ -2242,7 +2242,7 @@
         <v>4633.590358399045</v>
       </c>
       <c r="D14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>642456</v>
@@ -2852,7 +2852,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D19">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1302992</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>30547.085</v>
+        <v>9000</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>82466.42999999999</v>
+        <v>557361</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>91145.235</v>
+        <v>659430</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>133060</v>
       </c>
       <c r="E32">
-        <v>211201.7</v>
+        <v>842567</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>130310.21</v>
+        <v>246040</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>20865.89</v>
+        <v>34736</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5292,7 +5292,7 @@
         <v>1775.027517189621</v>
       </c>
       <c r="D39">
-        <v>133060</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>211201.7</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3181.44</v>
+        <v>30547.085</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>197262.845</v>
+        <v>130310.21</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>65306.79</v>
+        <v>82466.42999999999</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>188641.305</v>
+        <v>91145.235</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>56404.71</v>
+        <v>211201.7</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>225346.225</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>1</v>
